--- a/input_output/input/data_excel.xlsx
+++ b/input_output/input/data_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Software\Pybind11\Thesis\Reinforced_Concrete_Optimization\input_output\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Reinforced_Concrete_Optimization\input_output\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FCA217-910E-4DC0-9B48-597999F655F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F2D3B9-F861-41AF-AD43-CFD46A7878E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E775611E-7B99-4042-9ABD-CC7930E9D4FF}"/>
   </bookViews>
@@ -400,7 +400,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>dia_As_pos (mm)</t>
   </si>
@@ -520,6 +520,9 @@
   <si>
     <t>Pu (kN)</t>
   </si>
+  <si>
+    <t>B3</t>
+  </si>
 </sst>
 </file>
 
@@ -529,7 +532,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +594,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -966,13 +975,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACFB526-0AB9-404C-BC08-B5634DF84F3F}">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1180,14 +1189,14 @@
         <v>1000</v>
       </c>
       <c r="Z2" s="1">
-        <v>70</v>
+        <v>22.5</v>
       </c>
       <c r="AA2" s="1">
-        <f>S2</f>
+        <f t="shared" ref="AA2:AB4" si="0">S2</f>
         <v>420</v>
       </c>
       <c r="AB2" s="1">
-        <f>T2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AC2" s="1">
@@ -1205,7 +1214,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="1">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1">
         <v>350</v>
@@ -1239,7 +1248,7 @@
         <v>637.5</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3" si="0">J3-K3-H3-G3/2</f>
+        <f t="shared" ref="M3" si="1">J3-K3-H3-G3/2</f>
         <v>637.5</v>
       </c>
       <c r="N3" s="1">
@@ -1255,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="S3" s="1">
         <v>420</v>
@@ -1280,14 +1289,14 @@
         <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="AA3" s="1">
-        <f>S3</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="AB3" s="1">
-        <f>T3</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AC3" s="1">
@@ -1297,35 +1306,624 @@
         <v>45</v>
       </c>
       <c r="AE3" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="M4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>400</v>
+      </c>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>420</v>
+      </c>
+      <c r="E4" s="1">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>450</v>
+      </c>
+      <c r="J4" s="1">
+        <v>700</v>
+      </c>
+      <c r="K4" s="1">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1">
+        <f>J4-K4-H4-F4/2</f>
+        <v>637.5</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4" si="2">J4-K4-H4-G4/2</f>
+        <v>637.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>400</v>
+      </c>
+      <c r="S4" s="1">
+        <v>420</v>
+      </c>
+      <c r="T4" s="1">
+        <f>H4</f>
+        <v>13</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>45</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="I1nPsN+aYPV85klBBpFoxH1g/3gXrkjzSMqsi+cYEr0vV7pqb706fbTtgqzM3RyNMzlfMsgrUUBW+rF7XAAH8A==" saltValue="PFrKvpjEZE0Oa8mAA7ICDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
